--- a/NetworkConfigData/NETS_NYPS_68bus_tunedAgainst_gov_FS.xlsx
+++ b/NetworkConfigData/NETS_NYPS_68bus_tunedAgainst_gov_FS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Greybox_Case_Study\Examples\Paper_GreyBox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplex-Power-Systems\NetworkConfigData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49FF93F-A907-4409-AF2E-5C794AC55B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EBCBE6-AEB4-49A5-B928-E22BC14BEAA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Zhu, Yue:</t>
         </r>
@@ -61,7 +61,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Type 30: 8th order synchronous machine
@@ -110,7 +110,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Zhu, Yue:</t>
         </r>
@@ -119,7 +119,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 The parameters of A11 are kept the same as the original model, but seems to be quite different compared with other nearby machine. And it is reported that A11 is considered as an unstable machine in this 68 bus system. </t>
@@ -596,7 +596,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,19 +727,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3443,7 +3430,7 @@
   <dimension ref="A1:AQ76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5345,7 +5332,7 @@
         <v>0.03</v>
       </c>
       <c r="G22" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>9.55E-6</v>
       </c>
       <c r="H22" s="9">
         <v>0</v>
